--- a/data.xlsx
+++ b/data.xlsx
@@ -41,22 +41,22 @@
     <t>年龄</t>
   </si>
   <si>
-    <t>Berg_治疗前</t>
+    <t>Berg治疗前</t>
   </si>
   <si>
-    <t>Berg_治疗后</t>
+    <t>Berg治疗后</t>
   </si>
   <si>
-    <t>BI_治疗前</t>
+    <t>BI治疗前</t>
   </si>
   <si>
-    <t>BI_治疗后</t>
+    <t>BI治疗后</t>
   </si>
   <si>
-    <t>Fugl_meyer_治疗前</t>
+    <t>Fuglmeyer治疗前</t>
   </si>
   <si>
-    <t>Fugl_meyer_治疗后</t>
+    <t>Fuglmeyer治疗后</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1227,7 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+      <selection activeCell="E1" sqref="E1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
